--- a/Template-SEO-audit-dan.xlsx
+++ b/Template-SEO-audit-dan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\ocr_projects\project 4\Go Mike Design website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72533887-33AB-481F-A3B7-1C334CF64460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2FA08B-D3EC-412E-B6E5-8033CDA10C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>Issue analyzed</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Create a new property in GA and link the website url to the account to receive the visitors information and improve the site</t>
   </si>
   <si>
-    <t>https://web.dev/unminified-css/</t>
-  </si>
-  <si>
     <t>always define the lang</t>
   </si>
   <si>
@@ -271,6 +268,31 @@
   </si>
   <si>
     <t>https://www.w3.org/TR/WCAG20-TECHS/ARIA6.html</t>
+  </si>
+  <si>
+    <t>css validator</t>
+  </si>
+  <si>
+    <t>Be sure everything follows the standards.</t>
+  </si>
+  <si>
+    <t>Use the web to validate the code and correct any errors</t>
+  </si>
+  <si>
+    <t>html validator</t>
+  </si>
+  <si>
+    <t>Use the web to validate the code and correct any errors.</t>
+  </si>
+  <si>
+    <t>https://jigsaw.w3.org/css-validator/</t>
+  </si>
+  <si>
+    <t>https://validator.w3.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.dev/unminified-css/
+https://purifycss.online/                                 </t>
   </si>
 </sst>
 </file>
@@ -605,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -673,7 +695,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5" t="b">
         <v>0</v>
@@ -690,16 +712,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="47" x14ac:dyDescent="0.35">
@@ -710,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>25</v>
@@ -719,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -739,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.35">
@@ -779,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -799,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -819,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -830,7 +852,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>28</v>
@@ -839,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.35">
@@ -847,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>26</v>
@@ -858,8 +880,8 @@
       <c r="E11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>44</v>
+      <c r="F11" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="45" x14ac:dyDescent="0.35">
@@ -887,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>39</v>
@@ -899,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="70.5" x14ac:dyDescent="0.35">
@@ -907,19 +929,19 @@
         <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E14" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="70.5" x14ac:dyDescent="0.35">
@@ -927,19 +949,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="70.5" x14ac:dyDescent="0.35">
@@ -959,27 +981,27 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="47" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E17" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="47" x14ac:dyDescent="0.35">
@@ -987,19 +1009,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E18" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="70.5" x14ac:dyDescent="0.35">
@@ -1007,38 +1029,69 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="47" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>81</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="47" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" xr:uid="{8874FA05-294E-4806-8391-2091678850B9}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{57DE2256-0B7F-4AC8-98C8-C808BCA0BF80}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{96FAA6C5-4D84-4CC5-B337-F2D5B1185340}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{49F0798C-25F2-45AF-9984-EC2155EA6F87}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{F4CFF634-3D27-48DC-8048-A3D2A5FEEAB2}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{FFE26ACB-D44D-47A0-BAA0-746DE328581E}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{D970000E-EA01-401D-B057-9CD9B62D052F}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{AA007B90-A714-42E4-86BE-77D374E404B6}"/>
-    <hyperlink ref="F5" r:id="rId9" xr:uid="{04A3E930-8C71-4EC0-9706-0E77CA88D22A}"/>
-    <hyperlink ref="F3" r:id="rId10" xr:uid="{B594A237-9435-4ED0-88EC-5BE1EBB1FDBA}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{CACCBE23-4F61-4C10-90AE-A9CC29D22B7E}"/>
-    <hyperlink ref="F16" r:id="rId12" xr:uid="{2F4F814C-DE01-4C7E-BFF2-96C6A3E3912C}"/>
-    <hyperlink ref="F18" r:id="rId13" xr:uid="{24649648-D333-4095-AFB8-C4B585FCFF1A}"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{57DE2256-0B7F-4AC8-98C8-C808BCA0BF80}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{96FAA6C5-4D84-4CC5-B337-F2D5B1185340}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{49F0798C-25F2-45AF-9984-EC2155EA6F87}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{F4CFF634-3D27-48DC-8048-A3D2A5FEEAB2}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{FFE26ACB-D44D-47A0-BAA0-746DE328581E}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{D970000E-EA01-401D-B057-9CD9B62D052F}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{AA007B90-A714-42E4-86BE-77D374E404B6}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{04A3E930-8C71-4EC0-9706-0E77CA88D22A}"/>
+    <hyperlink ref="F3" r:id="rId9" xr:uid="{B594A237-9435-4ED0-88EC-5BE1EBB1FDBA}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{CACCBE23-4F61-4C10-90AE-A9CC29D22B7E}"/>
+    <hyperlink ref="F16" r:id="rId11" xr:uid="{2F4F814C-DE01-4C7E-BFF2-96C6A3E3912C}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{24649648-D333-4095-AFB8-C4B585FCFF1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId14"/>
+  <pageSetup orientation="landscape" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Template-SEO-audit-dan.xlsx
+++ b/Template-SEO-audit-dan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\ocr_projects\project 4\Go Mike Design website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2FA08B-D3EC-412E-B6E5-8033CDA10C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A5A03-BCDA-4BED-B60B-F9C9C72D4090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>Issue analyzed</t>
   </si>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="68" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1045,7 +1045,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="47" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>81</v>
       </c>
@@ -1061,7 +1063,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="47" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>84</v>
       </c>
